--- a/LEAGUES/2022/MATRIZ-FULL/matriz-full-league-2022.xlsx
+++ b/LEAGUES/2022/MATRIZ-FULL/matriz-full-league-2022.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="la liga" sheetId="2" r:id="rId2"/>
-    <sheet name="brazil serie a" sheetId="6" r:id="rId3"/>
-    <sheet name="italia serie b" sheetId="9" r:id="rId4"/>
-    <sheet name="league one" sheetId="3" r:id="rId5"/>
-    <sheet name="league two" sheetId="4" r:id="rId6"/>
-    <sheet name="championship" sheetId="5" r:id="rId7"/>
+    <sheet name="championship" sheetId="5" r:id="rId3"/>
+    <sheet name="league one" sheetId="3" r:id="rId4"/>
+    <sheet name="brazil serie a" sheetId="6" r:id="rId5"/>
+    <sheet name="italia serie b" sheetId="9" r:id="rId6"/>
+    <sheet name="league two" sheetId="4" r:id="rId7"/>
     <sheet name="braziil serie b" sheetId="7" r:id="rId8"/>
     <sheet name="brazil serie c" sheetId="8" r:id="rId9"/>
     <sheet name="bundesliga" sheetId="10" r:id="rId10"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="260">
   <si>
     <t>DATA</t>
   </si>
@@ -575,6 +575,249 @@
   <si>
     <t>SANTOS vs FORTALEZA</t>
   </si>
+  <si>
+    <t>QP RANGERS vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t>CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>LINCOLN CITY vs WYCOMBE</t>
+  </si>
+  <si>
+    <t> LEAGUE ONE</t>
+  </si>
+  <si>
+    <t> BRISTOL CITY vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t> CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t> BRISTOL CITY vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>  BOURNEMOUTH vs STOKE CITY</t>
+  </si>
+  <si>
+    <t> LINCOLN CITY vs GILLINGHAM</t>
+  </si>
+  <si>
+    <t> PORTSMOUTH vs OXFORD UTD</t>
+  </si>
+  <si>
+    <t> COVENTRY CITY vs BLACKBURN</t>
+  </si>
+  <si>
+    <t>  PETERBOROUGH vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t>   SUNDERLAND vs GILLINGHAM</t>
+  </si>
+  <si>
+    <t>  CAMBRIDGE UTD vs WYCOMBE</t>
+  </si>
+  <si>
+    <t>  BLACKBURN vs BLACKPOOL</t>
+  </si>
+  <si>
+    <t>  BOLTON vs SHEFFIELD WED</t>
+  </si>
+  <si>
+    <t> BIRMINGHAM CITY vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>   DERBY COUNTY vs FULHAM</t>
+  </si>
+  <si>
+    <t>  PETERBOROUGH vs BLACKBURN</t>
+  </si>
+  <si>
+    <t>   SWANSEA CITY vs BARNSLEY</t>
+  </si>
+  <si>
+    <t>  WEST BROM vs BLACKPOOL</t>
+  </si>
+  <si>
+    <t>  BLACKPOOL vs BIRMINGHAM CITY</t>
+  </si>
+  <si>
+    <t>6--1</t>
+  </si>
+  <si>
+    <t>   BRISTOL CITY vs SHEFFIELD UTD</t>
+  </si>
+  <si>
+    <t>     MORECAMBE vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t> BURTON ALBION vs ROTHERHAM</t>
+  </si>
+  <si>
+    <t>   CHELTENHAM vs BOLTON</t>
+  </si>
+  <si>
+    <t> WEST BROM vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t> FLEETWOOD vs SHEFFIELD WED</t>
+  </si>
+  <si>
+    <t>  QP RANGERS vs SHEFFIELD UTD</t>
+  </si>
+  <si>
+    <t>   BLACKBURN vs BOURNEMOUTH</t>
+  </si>
+  <si>
+    <t>  BURTON ALBION vs WYCOMBE</t>
+  </si>
+  <si>
+    <t>  GILLINGHAM vs ROTHERHAM</t>
+  </si>
+  <si>
+    <t>MILLWALL vs PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>  NOTTM FOREST vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>5--1</t>
+  </si>
+  <si>
+    <t>     FULHAM vs LUTON TOWN</t>
+  </si>
+  <si>
+    <t>7--0</t>
+  </si>
+  <si>
+    <t>  BIRMINGHAM CITY vs BLACKBURN</t>
+  </si>
+  <si>
+    <t> BOURNEMOUTH vs MILLWALL</t>
+  </si>
+  <si>
+    <t> STOKE CITY vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t> SWANSEA CITY vs QP RANGERS</t>
+  </si>
+  <si>
+    <t>  MIDDLESBROUGH vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t> SUNDERLAND vs NORWICH CITY</t>
+  </si>
+  <si>
+    <t>SUNDERLAND vs ROTHERHAM</t>
+  </si>
+  <si>
+    <t> SWANSEA CITY vs HULL CITY</t>
+  </si>
+  <si>
+    <t>WEST BROM vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>BURNLEY vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>WATFORD vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>  PORTSMOUTH vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>CHARLTON vs EXETER CITY</t>
+  </si>
+  <si>
+    <t> BURNLEY vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>NORWICH CITY vs LUTON TOWN</t>
+  </si>
+  <si>
+    <t>FLEETWOOD vs FOREST GREEN</t>
+  </si>
+  <si>
+    <t>FLEETWOOD vs ACCRINGTON</t>
+  </si>
+  <si>
+    <t> WEST BROM vs SHEFFIELD UTD</t>
+  </si>
+  <si>
+    <t> BRISTOL CITY vs SHEFFIELD UTD</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>MIDDLESBROUGH vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t> WATFORD vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>LUTON TOWN vs ROTHERHAM</t>
+  </si>
+  <si>
+    <t>MORECAMBE vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>LINCOLN CITY vs MORECAMBE</t>
+  </si>
+  <si>
+    <t>PORT VALE vs CHARLTON</t>
+  </si>
+  <si>
+    <t>IPSWICH TOWN vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>WYCOMBE vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>BURTON ALBION vs DERBY COUNTY</t>
+  </si>
+  <si>
+    <t>BOLTON vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>WEST BROM vs ROTHERHAM</t>
+  </si>
+  <si>
+    <t>IPSWICH TOWN vs OXFORD UTD</t>
+  </si>
+  <si>
+    <t>SHEFFIELD UTD vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>BOLTON vs DERBY COUNTY</t>
+  </si>
+  <si>
+    <t> BARNSLEY vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t> OXFORD UTD vs CHARLTON</t>
+  </si>
+  <si>
+    <t> WYCOMBE vs ACCRINGTON</t>
+  </si>
+  <si>
+    <t> FOREST GREEN vs MORECAMBE</t>
+  </si>
+  <si>
+    <t> BARNSLEY vs CHARLTON</t>
+  </si>
+  <si>
+    <t> BRISTOL ROVERS vs ACCRINGTON</t>
+  </si>
+  <si>
+    <t> FOREST GREEN vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>over 1,75</t>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +827,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,8 +930,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +994,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -750,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -890,11 +1153,171 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1404,7 +1827,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,29 +2888,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G3 G5:G29">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F44">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2497,10 +2920,3150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44601</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="60">
+        <v>1.88</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <f>C2*E$57</f>
+        <v>1880</v>
+      </c>
+      <c r="G2" s="5">
+        <f>F2-E$57</f>
+        <v>880</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44611</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F41" si="0">C3*E$57</f>
+        <v>1500</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G41" si="1">F3-E$57</f>
+        <v>500</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>44614</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="60">
+        <v>1.95</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44618</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1530</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
+        <v>44653</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1.54</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44653</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="65">
+        <v>1.77</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1770</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44660</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44666</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="65">
+        <v>1.89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>890</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44666</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="65">
+        <v>1.83</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>830</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44666</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1.48</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>1480</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44666</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="28">
+        <v>1.51</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44666</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1.52</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44669</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>44669</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>1490</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44674</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44680</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1.82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>1820</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>820</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44681</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44681</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="46">
+        <v>1.74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44681</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1.64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44683</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="65">
+        <v>1.75</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>44688</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="46">
+        <v>1.7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>44688</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>44688</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="46">
+        <v>1.76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>44688</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="46">
+        <v>1.47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>44800</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="51">
+        <v>1.88</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>1880</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>44800</v>
+      </c>
+      <c r="B27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>44804</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>1480</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>44821</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1.52</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>44835</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="51">
+        <v>1.93</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>44839</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="51">
+        <v>1.89</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>44839</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="51">
+        <v>1.97</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>970</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>44849</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="51">
+        <v>1.81</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>1810</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>44852</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="51">
+        <v>1.93</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>44863</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>44866</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="65">
+        <v>1.89</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>44870</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="51">
+        <v>1.93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>44870</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="46">
+        <v>1.93</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>44877</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="36">
+        <v>1.51</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>44912</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>44921</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="15">
+        <f>COUNT(C2:C44)</f>
+        <v>40</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="17">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="13">
+        <f>E46-E47</f>
+        <v>30</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <f>E48/E46*100</f>
+        <v>75</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <f>1/E51*100</f>
+        <v>59.737156511350051</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <f>SUM(C2:C43)/E46</f>
+        <v>1.6740000000000002</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="13">
+        <f>E49-E50</f>
+        <v>15.262843488649949</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="13">
+        <f>E52/1</f>
+        <v>15.262843488649949</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="21">
+        <v>25000</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5">
+        <f>E55/100</f>
+        <v>250</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="23">
+        <f>E56*4</f>
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="24">
+        <f>SUM(G2:G43)</f>
+        <v>7620</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="8">
+        <f>E58/E54*100</f>
+        <v>30.48</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H42:H45 G2:G43">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G60">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44604</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="5">
+        <f>D2*F$51</f>
+        <v>1380</v>
+      </c>
+      <c r="I2" s="5">
+        <f>(H2-F$51)/2</f>
+        <v>190</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44618</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H34" si="0">D3*F$51</f>
+        <v>1380</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I30" si="1">(H3-F$51)/2</f>
+        <v>190</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="60">
+        <v>1.82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>1820</v>
+      </c>
+      <c r="I4" s="5">
+        <f>(H4-F$51)</f>
+        <v>820</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44653</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="65">
+        <v>1.91</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>(H5-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44656</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1.47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I6" s="5">
+        <f>(H6-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44660</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1.52</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="5">
+        <f>D7*F$51</f>
+        <v>1380</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44669</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44670</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44674</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="46">
+        <v>1.76</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="I10" s="5">
+        <f>(H10-F$51)</f>
+        <v>760</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44677</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I11" s="5">
+        <f>(H11-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44681</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="46">
+        <v>1.57</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>1570</v>
+      </c>
+      <c r="I12" s="5">
+        <f>(H12-F$51)</f>
+        <v>570</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44681</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>44817</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1.69</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>(H14-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>44821</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1.51</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I15" s="5">
+        <f>(H15-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>44828</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="51">
+        <v>1.89</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="I16" s="5">
+        <f>(H16-F$51)</f>
+        <v>890</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>44828</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1.74</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f>(H17-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>44828</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="36">
+        <v>1.53</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I18" s="5">
+        <f>(H18-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>44842</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1.45</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I19" s="5">
+        <f>(H19-F$51)/2</f>
+        <v>190</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>44845</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1.91</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+      <c r="I20" s="5">
+        <f>(H20-F$51)</f>
+        <v>910</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>44859</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1.46</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>44863</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1.85</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="I22" s="5">
+        <f>(H22-F$51)</f>
+        <v>850</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>44866</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1.93</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f>(H23-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>44877</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1.86</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="E24" s="53">
+        <v>1.43</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f>(H24-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>44884</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I25" s="5">
+        <f>(H25-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>44884</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f>(H26-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>44897</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>44899</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>44905</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>44912</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>44921</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I31" s="5">
+        <f>(H31-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>44922</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f>(H32-F$51)</f>
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>44924</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I33" s="5">
+        <f>(H33-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>44924</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="I34" s="5">
+        <f>(H34-F$51)</f>
+        <v>380</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="37"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="55"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="29"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="29"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="15">
+        <f>COUNT(C2:C38)</f>
+        <v>33</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="17">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="13">
+        <f>F40-F41</f>
+        <v>26</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <f>F42/F40*100</f>
+        <v>78.787878787878782</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <f>1/F45*100</f>
+        <v>66.092529541357877</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
+        <f>SUM(D2:D37)/F40</f>
+        <v>1.5130303030303036</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="13">
+        <f>F43-F44</f>
+        <v>12.695349246520905</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="13">
+        <f>F46/1</f>
+        <v>12.695349246520905</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="20">
+        <v>25000</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="21">
+        <v>25000</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="5">
+        <f>F49/100</f>
+        <v>250</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="23">
+        <f>F50*4</f>
+        <v>1000</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="24">
+        <f>SUM(I2:I37)</f>
+        <v>3120</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="8">
+        <f>F52/F48*100</f>
+        <v>12.479999999999999</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I39 J38 I2:I37">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H54">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,12 +6072,13 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="56"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,20 +6095,23 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44692</v>
       </c>
@@ -2563,22 +6130,25 @@
       <c r="F2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="24">
         <f>D2*E$83</f>
         <v>1450</v>
       </c>
-      <c r="H2" s="45">
-        <f>(G2-E$83)/2</f>
+      <c r="I2" s="45">
+        <f>(H2-E$83)/2</f>
         <v>225</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44697</v>
       </c>
@@ -2597,22 +6167,25 @@
       <c r="F3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24">
-        <f t="shared" ref="G3:G66" si="0">D3*E$83</f>
+      <c r="G3" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="24">
+        <f t="shared" ref="H3:H66" si="0">D3*E$83</f>
         <v>1450</v>
       </c>
-      <c r="H3" s="45">
-        <f>(G3-E$83)</f>
+      <c r="I3" s="45">
+        <f>(H3-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44701</v>
       </c>
@@ -2631,22 +6204,25 @@
       <c r="F4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H4" s="45">
-        <f>(G4-E$83)</f>
+      <c r="I4" s="45">
+        <f>(H4-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44721</v>
       </c>
@@ -2665,22 +6241,25 @@
       <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H5" s="45">
-        <f t="shared" ref="H5:H62" si="1">(G5-E$83)/2</f>
+      <c r="I5" s="45">
+        <f t="shared" ref="I5:I62" si="1">(H5-E$83)/2</f>
         <v>225</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44724</v>
       </c>
@@ -2699,22 +6278,25 @@
       <c r="F6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H6" s="45">
-        <f>(G6-E$83)</f>
+      <c r="I6" s="45">
+        <f>(H6-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="J6" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44731</v>
       </c>
@@ -2733,22 +6315,25 @@
       <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H7" s="45">
-        <f>(G7-E$83)</f>
+      <c r="I7" s="45">
+        <f>(H7-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44731</v>
       </c>
@@ -2767,21 +6352,24 @@
       <c r="F8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="H8" s="45">
-        <f>(G8-E$83)</f>
+      <c r="I8" s="45">
+        <f>(H8-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44731</v>
       </c>
@@ -2800,22 +6388,25 @@
       <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H9" s="45">
-        <f>(G9-E$83)</f>
+      <c r="I9" s="45">
+        <f>(H9-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44731</v>
       </c>
@@ -2834,22 +6425,25 @@
       <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H10" s="45">
+      <c r="I10" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44738</v>
       </c>
@@ -2868,22 +6462,25 @@
       <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H11" s="45">
+      <c r="I11" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44745</v>
       </c>
@@ -2902,22 +6499,25 @@
       <c r="F12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H12" s="45">
+      <c r="I12" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44752</v>
       </c>
@@ -2936,21 +6536,24 @@
       <c r="F13" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="24">
         <v>0</v>
       </c>
-      <c r="H13" s="45">
-        <f>(G13-E$83)</f>
+      <c r="I13" s="45">
+        <f>(H13-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44752</v>
       </c>
@@ -2969,22 +6572,25 @@
       <c r="F14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H14" s="45">
-        <f>(G14-E$83)</f>
+      <c r="I14" s="45">
+        <f>(H14-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44752</v>
       </c>
@@ -3003,21 +6609,24 @@
       <c r="F15" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="24">
         <v>0</v>
       </c>
-      <c r="H15" s="45">
-        <f>(G15-E$83)</f>
+      <c r="I15" s="45">
+        <f>(H15-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44752</v>
       </c>
@@ -3036,21 +6645,24 @@
       <c r="F16" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="24">
         <v>0</v>
       </c>
-      <c r="H16" s="45">
-        <f>(G16-E$83)</f>
+      <c r="I16" s="45">
+        <f>(H16-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44762</v>
       </c>
@@ -3069,22 +6681,25 @@
       <c r="F17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H17" s="45">
-        <f>(G17-E$83)</f>
+      <c r="I17" s="45">
+        <f>(H17-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44762</v>
       </c>
@@ -3103,22 +6718,25 @@
       <c r="F18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H18" s="45">
-        <f t="shared" ref="H18:H19" si="2">(G18-E$83)</f>
+      <c r="I18" s="45">
+        <f t="shared" ref="I18:I19" si="2">(H18-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44765</v>
       </c>
@@ -3137,22 +6755,25 @@
       <c r="F19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H19" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H19" s="45">
+      <c r="I19" s="45">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44766</v>
       </c>
@@ -3171,21 +6792,24 @@
       <c r="F20" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="24">
         <v>0</v>
       </c>
-      <c r="H20" s="45">
-        <f>(G20-E$83)</f>
+      <c r="I20" s="45">
+        <f>(H20-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44766</v>
       </c>
@@ -3204,22 +6828,25 @@
       <c r="F21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H21" s="45">
-        <f>(G21-E$83)</f>
+      <c r="I21" s="45">
+        <f>(H21-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44772</v>
       </c>
@@ -3238,22 +6865,25 @@
       <c r="F22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H22" s="45">
-        <f t="shared" ref="H22:H26" si="3">(G22-E$83)</f>
+      <c r="I22" s="45">
+        <f t="shared" ref="I22:I26" si="3">(H22-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44779</v>
       </c>
@@ -3272,22 +6902,25 @@
       <c r="F23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H23" s="45">
+      <c r="I23" s="45">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44780</v>
       </c>
@@ -3306,22 +6939,25 @@
       <c r="F24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H24" s="45">
+      <c r="I24" s="45">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44780</v>
       </c>
@@ -3340,22 +6976,25 @@
       <c r="F25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H25" s="45">
+      <c r="I25" s="45">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44780</v>
       </c>
@@ -3374,22 +7013,25 @@
       <c r="F26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H26" s="45">
+      <c r="I26" s="45">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44793</v>
       </c>
@@ -3408,21 +7050,24 @@
       <c r="F27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="24">
         <v>0</v>
       </c>
-      <c r="H27" s="45">
-        <f>(G27-E$83)</f>
+      <c r="I27" s="45">
+        <f>(H27-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44794</v>
       </c>
@@ -3441,22 +7086,25 @@
       <c r="F28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H28" s="45">
-        <f>(G28-E$83)</f>
+      <c r="I28" s="45">
+        <f>(H28-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44800</v>
       </c>
@@ -3475,22 +7123,25 @@
       <c r="F29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H29" s="45">
-        <f>(G29-E$83)/2</f>
+      <c r="I29" s="45">
+        <f>(H29-E$83)/2</f>
         <v>225</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>44807</v>
       </c>
@@ -3509,22 +7160,25 @@
       <c r="F30" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H30" s="45">
-        <f>(G30-E$83)</f>
+      <c r="I30" s="45">
+        <f>(H30-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>44808</v>
       </c>
@@ -3543,22 +7197,25 @@
       <c r="F31" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H31" s="45">
+      <c r="I31" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="J31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>44811</v>
       </c>
@@ -3577,22 +7234,25 @@
       <c r="F32" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H32" s="45">
+      <c r="I32" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>44815</v>
       </c>
@@ -3611,22 +7271,25 @@
       <c r="F33" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H33" s="45">
+      <c r="I33" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>44821</v>
       </c>
@@ -3645,21 +7308,24 @@
       <c r="F34" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" s="24">
         <v>0</v>
       </c>
-      <c r="H34" s="45">
-        <f>(G34-E$83)</f>
+      <c r="I34" s="45">
+        <f>(H34-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>44822</v>
       </c>
@@ -3678,22 +7344,25 @@
       <c r="F35" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H35" s="45">
+      <c r="I35" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="J35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>44822</v>
       </c>
@@ -3712,22 +7381,25 @@
       <c r="F36" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H36" s="45">
+      <c r="I36" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>44823</v>
       </c>
@@ -3746,22 +7418,25 @@
       <c r="F37" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H37" s="45">
-        <f>(G37-E$83)</f>
+      <c r="I37" s="45">
+        <f>(H37-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>44833</v>
       </c>
@@ -3780,21 +7455,24 @@
       <c r="F38" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="24">
         <v>0</v>
       </c>
-      <c r="H38" s="45">
-        <f>(G38-E$83)</f>
+      <c r="I38" s="45">
+        <f>(H38-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>44835</v>
       </c>
@@ -3813,22 +7491,25 @@
       <c r="F39" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H39" s="45">
+      <c r="I39" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>44835</v>
       </c>
@@ -3847,22 +7528,25 @@
       <c r="F40" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H40" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H40" s="45">
-        <f>(G40-E$83)</f>
+      <c r="I40" s="45">
+        <f>(H40-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>44835</v>
       </c>
@@ -3881,21 +7565,24 @@
       <c r="F41" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="24">
         <v>0</v>
       </c>
-      <c r="H41" s="45">
-        <f>(G41-E$83)</f>
+      <c r="I41" s="45">
+        <f>(H41-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>44839</v>
       </c>
@@ -3914,22 +7601,25 @@
       <c r="F42" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H42" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H42" s="45">
+      <c r="I42" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="J42" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>44840</v>
       </c>
@@ -3948,22 +7638,25 @@
       <c r="F43" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H43" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H43" s="45">
-        <f>(G43-E$83)</f>
+      <c r="I43" s="45">
+        <f>(H43-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="J43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>44840</v>
       </c>
@@ -3982,22 +7675,25 @@
       <c r="F44" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H44" s="45">
-        <f t="shared" ref="H44:H45" si="4">(G44-E$83)</f>
+      <c r="I44" s="45">
+        <f t="shared" ref="I44:I45" si="4">(H44-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>44843</v>
       </c>
@@ -4016,22 +7712,25 @@
       <c r="F45" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H45" s="45">
+      <c r="I45" s="45">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>44843</v>
       </c>
@@ -4050,21 +7749,24 @@
       <c r="F46" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" s="24">
         <v>0</v>
       </c>
-      <c r="H46" s="45">
-        <f>(G46-E$83)</f>
+      <c r="I46" s="45">
+        <f>(H46-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>44850</v>
       </c>
@@ -4083,21 +7785,24 @@
       <c r="F47" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="24">
         <v>0</v>
       </c>
-      <c r="H47" s="45">
-        <f>(G47-E$83)</f>
+      <c r="I47" s="45">
+        <f>(H47-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>44850</v>
       </c>
@@ -4116,22 +7821,25 @@
       <c r="F48" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H48" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H48" s="45">
+      <c r="I48" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>44850</v>
       </c>
@@ -4150,21 +7858,24 @@
       <c r="F49" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H49" s="24">
         <v>0</v>
       </c>
-      <c r="H49" s="45">
-        <f>(G49-E$83)</f>
+      <c r="I49" s="45">
+        <f>(H49-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>44856</v>
       </c>
@@ -4183,22 +7894,25 @@
       <c r="F50" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H50" s="45">
-        <f>(G50-E$83)</f>
+      <c r="I50" s="45">
+        <f>(H50-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>44857</v>
       </c>
@@ -4217,21 +7931,24 @@
       <c r="F51" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H51" s="24">
         <v>0</v>
       </c>
-      <c r="H51" s="45">
-        <f>(G51-E$83)</f>
+      <c r="I51" s="45">
+        <f>(H51-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="J51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>44857</v>
       </c>
@@ -4250,22 +7967,25 @@
       <c r="F52" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H52" s="45">
-        <f>(G52-E$83)</f>
+      <c r="I52" s="45">
+        <f>(H52-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="J52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>44857</v>
       </c>
@@ -4284,22 +8004,25 @@
       <c r="F53" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H53" s="45">
-        <f t="shared" ref="H53:H55" si="5">(G53-E$83)</f>
+      <c r="I53" s="45">
+        <f t="shared" ref="I53:I55" si="5">(H53-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>44860</v>
       </c>
@@ -4318,22 +8041,25 @@
       <c r="F54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H54" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H54" s="45">
+      <c r="I54" s="45">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>44860</v>
       </c>
@@ -4352,22 +8078,25 @@
       <c r="F55" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H55" s="45">
+      <c r="I55" s="45">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>44867</v>
       </c>
@@ -4386,21 +8115,24 @@
       <c r="F56" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="24">
         <v>0</v>
       </c>
-      <c r="H56" s="45">
-        <f>(G56-E$83)</f>
+      <c r="I56" s="45">
+        <f>(H56-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>44867</v>
       </c>
@@ -4419,22 +8151,25 @@
       <c r="F57" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H57" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H57" s="45">
-        <f>(G57-E$83)</f>
+      <c r="I57" s="45">
+        <f>(H57-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>44867</v>
       </c>
@@ -4453,22 +8188,25 @@
       <c r="F58" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H58" s="45">
-        <f t="shared" ref="H58:H60" si="6">(G58-E$83)</f>
+      <c r="I58" s="45">
+        <f t="shared" ref="I58:I60" si="6">(H58-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>44870</v>
       </c>
@@ -4487,22 +8225,25 @@
       <c r="F59" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H59" s="45">
+      <c r="I59" s="45">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>44870</v>
       </c>
@@ -4521,22 +8262,25 @@
       <c r="F60" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H60" s="45">
+      <c r="I60" s="45">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>44872</v>
       </c>
@@ -4555,22 +8299,25 @@
       <c r="F61" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H61" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H61" s="45">
+      <c r="I61" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>44874</v>
       </c>
@@ -4589,22 +8336,25 @@
       <c r="F62" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H62" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H62" s="45">
+      <c r="I62" s="45">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="J62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>44874</v>
       </c>
@@ -4623,21 +8373,24 @@
       <c r="F63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H63" s="24">
         <v>0</v>
       </c>
-      <c r="H63" s="45">
-        <f>(G63-E$83)</f>
+      <c r="I63" s="45">
+        <f>(H63-E$83)</f>
         <v>-1000</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="J63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <v>44875</v>
       </c>
@@ -4656,22 +8409,25 @@
       <c r="F64" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H64" s="45">
-        <f>(G64-E$83)</f>
+      <c r="I64" s="45">
+        <f>(H64-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>44875</v>
       </c>
@@ -4690,22 +8446,25 @@
       <c r="F65" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G65" s="24">
+      <c r="G65" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H65" s="45">
-        <f t="shared" ref="H65:H68" si="7">(G65-E$83)</f>
+      <c r="I65" s="45">
+        <f t="shared" ref="I65:I68" si="7">(H65-E$83)</f>
         <v>450</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>44878</v>
       </c>
@@ -4724,22 +8483,25 @@
       <c r="F66" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H66" s="24">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
-      <c r="H66" s="45">
+      <c r="I66" s="45">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>44878</v>
       </c>
@@ -4758,22 +8520,25 @@
       <c r="F67" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="24">
-        <f t="shared" ref="G67:G69" si="8">D67*E$83</f>
+      <c r="G67" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="24">
+        <f t="shared" ref="H67:H69" si="8">D67*E$83</f>
         <v>1450</v>
       </c>
-      <c r="H67" s="45">
+      <c r="I67" s="45">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <v>44879</v>
       </c>
@@ -4792,22 +8557,25 @@
       <c r="F68" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H68" s="24">
         <f t="shared" si="8"/>
         <v>1450</v>
       </c>
-      <c r="H68" s="45">
+      <c r="I68" s="45">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <v>44879</v>
       </c>
@@ -4826,46 +8594,51 @@
       <c r="F69" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H69" s="24">
         <f t="shared" si="8"/>
         <v>1450</v>
       </c>
-      <c r="H69" s="45">
-        <f t="shared" ref="H69" si="9">(G69-E$83)/2</f>
+      <c r="I69" s="45">
+        <f t="shared" ref="I69" si="9">(H69-E$83)/2</f>
         <v>225</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
       <c r="B70" s="3"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="28"/>
       <c r="F70" s="29"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="29"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="3"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="76"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>44</v>
@@ -4875,10 +8648,11 @@
         <v>68</v>
       </c>
       <c r="F72" s="3"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="8"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>45</v>
@@ -4887,12 +8661,13 @@
         <v>15</v>
       </c>
       <c r="F73" s="3"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="8"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>46</v>
@@ -4902,12 +8677,13 @@
         <v>53</v>
       </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G74" s="8"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>47</v>
@@ -4917,12 +8693,13 @@
         <v>77.941176470588232</v>
       </c>
       <c r="F75" s="3"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G75" s="8"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>48</v>
@@ -4932,12 +8709,13 @@
         <v>68.965517241379231</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G76" s="8"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>49</v>
@@ -4947,12 +8725,13 @@
         <v>1.4500000000000015</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G77" s="8"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>50</v>
@@ -4962,12 +8741,13 @@
         <v>8.9756592292090005</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G78" s="8"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>51</v>
@@ -4977,12 +8757,13 @@
         <v>8.9756592292090005</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G79" s="8"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="19" t="s">
         <v>52</v>
@@ -4991,12 +8772,13 @@
         <v>25000</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G80" s="8"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>53</v>
@@ -5005,12 +8787,13 @@
         <v>25000</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G81" s="8"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>54</v>
@@ -5020,12 +8803,13 @@
         <v>250</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G82" s="8"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
         <v>55</v>
@@ -5035,27 +8819,29 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G83" s="8"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E84" s="24">
-        <f>SUM(H2:H69)</f>
+        <f>SUM(I2:I69)</f>
         <v>5025</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G84" s="8"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="25" t="s">
         <v>57</v>
@@ -5065,23 +8851,25 @@
         <v>20.100000000000001</v>
       </c>
       <c r="F85" s="3"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G85" s="8"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="E86" s="8"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="3"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H71">
+  <conditionalFormatting sqref="I2:I71">
     <cfRule type="cellIs" dxfId="9" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5089,7 +8877,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73:G86">
+  <conditionalFormatting sqref="H73:H86">
     <cfRule type="cellIs" dxfId="7" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5104,12 +8892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6240,30 +10028,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/LEAGUES/2022/MATRIZ-FULL/matriz-full-league-2022.xlsx
+++ b/LEAGUES/2022/MATRIZ-FULL/matriz-full-league-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -2922,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="F2" s="5">
         <f>C2*E$57</f>
-        <v>1880</v>
+        <v>846</v>
       </c>
       <c r="G2" s="5">
         <f>F2-E$57</f>
-        <v>880</v>
+        <v>396</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>16</v>
@@ -3018,11 +3018,11 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F41" si="0">C3*E$57</f>
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G41" si="1">F3-E$57</f>
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>19</v>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>877.5</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>427.5</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>32</v>
@@ -3082,11 +3082,11 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>1530</v>
+        <v>688.5</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>530</v>
+        <v>238.5</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>35</v>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>693</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>243</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -3146,11 +3146,11 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>1770</v>
+        <v>796.5</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>770</v>
+        <v>346.5</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>31</v>
@@ -3208,11 +3208,11 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>1890</v>
+        <v>850.5</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>890</v>
+        <v>400.5</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>31</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>1830</v>
+        <v>823.5</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>373.5</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>19</v>
@@ -3272,11 +3272,11 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>1480</v>
+        <v>666</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>19</v>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>1520</v>
+        <v>684</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>234</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>19</v>
@@ -3366,11 +3366,11 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>202</v>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>670.5</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>220.5</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>13</v>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>12</v>
@@ -3460,11 +3460,11 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>819</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>820</v>
+        <v>369</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>65</v>
@@ -3522,11 +3522,11 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>1740</v>
+        <v>783</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>740</v>
+        <v>333</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>74</v>
@@ -3553,11 +3553,11 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>1640</v>
+        <v>738</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>288</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>215</v>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>787.5</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>337.5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>217</v>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>765</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>315</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>32</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>43</v>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>13</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>38</v>
@@ -3736,11 +3736,11 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>1880</v>
+        <v>846</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>880</v>
+        <v>396</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>19</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>38</v>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>1480</v>
+        <v>666</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>74</v>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>1520</v>
+        <v>684</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>234</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>74</v>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>1930</v>
+        <v>868.5</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
-        <v>930</v>
+        <v>418.5</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>26</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>13</v>
@@ -3920,11 +3920,11 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>886.5</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
-        <v>970</v>
+        <v>436.5</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>32</v>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>1810</v>
+        <v>814.5</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="1"/>
-        <v>810</v>
+        <v>364.5</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>40</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>43</v>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>43</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>13</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>38</v>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>74</v>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>35</v>
@@ -4427,8 +4427,8 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="23">
-        <f>E56*4</f>
-        <v>1000</v>
+        <f>E56*1.8</f>
+        <v>450</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="26"/>
@@ -4444,7 +4444,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="24">
         <f>SUM(G2:G43)</f>
-        <v>7620</v>
+        <v>3429</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="27"/>
@@ -4460,7 +4460,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="8">
         <f>E58/E54*100</f>
-        <v>30.48</v>
+        <v>13.716000000000001</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="26"/>
@@ -4506,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,11 +4578,11 @@
       </c>
       <c r="H2" s="5">
         <f>D2*F$51</f>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I2" s="5">
         <f>(H2-F$51)/2</f>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>13</v>
@@ -4615,11 +4615,11 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H34" si="0">D3*F$51</f>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I30" si="1">(H3-F$51)/2</f>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
@@ -4652,11 +4652,11 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>819</v>
       </c>
       <c r="I4" s="5">
         <f>(H4-F$51)</f>
-        <v>820</v>
+        <v>369</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>34</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="I5" s="5">
         <f>(H5-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>43</v>
@@ -4725,11 +4725,11 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I6" s="5">
         <f>(H6-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>31</v>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="H7" s="5">
         <f>D7*F$51</f>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>13</v>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>13</v>
@@ -4836,11 +4836,11 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>22</v>
@@ -4873,11 +4873,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>1760</v>
+        <v>792</v>
       </c>
       <c r="I10" s="5">
         <f>(H10-F$51)</f>
-        <v>760</v>
+        <v>342</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>32</v>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I11" s="5">
         <f>(H11-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>26</v>
@@ -4947,11 +4947,11 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>1570</v>
+        <v>706.5</v>
       </c>
       <c r="I12" s="5">
         <f>(H12-F$51)</f>
-        <v>570</v>
+        <v>256.5</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>32</v>
@@ -4984,11 +4984,11 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="I14" s="5">
         <f>(H14-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>43</v>
@@ -5053,11 +5053,11 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I15" s="5">
         <f>(H15-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>32</v>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>1890</v>
+        <v>850.5</v>
       </c>
       <c r="I16" s="5">
         <f>(H16-F$51)</f>
-        <v>890</v>
+        <v>400.5</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>35</v>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="I17" s="5">
         <f>(H17-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>38</v>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I18" s="5">
         <f>(H18-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>70</v>
@@ -5192,11 +5192,11 @@
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I19" s="5">
         <f>(H19-F$51)/2</f>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>13</v>
@@ -5227,11 +5227,11 @@
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>1910</v>
+        <v>859.5</v>
       </c>
       <c r="I20" s="5">
         <f>(H20-F$51)</f>
-        <v>910</v>
+        <v>409.5</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>106</v>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>13</v>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>1850</v>
+        <v>832.5</v>
       </c>
       <c r="I22" s="5">
         <f>(H22-F$51)</f>
-        <v>850</v>
+        <v>382.5</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>74</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="I23" s="5">
         <f>(H23-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="I24" s="5">
         <f>(H24-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>13</v>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I25" s="5">
         <f>(H25-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>19</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="I26" s="5">
         <f>(H26-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>43</v>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>13</v>
@@ -5506,11 +5506,11 @@
       </c>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>22</v>
@@ -5541,11 +5541,11 @@
       </c>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>13</v>
@@ -5576,11 +5576,11 @@
       </c>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>85.5</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
@@ -5611,11 +5611,11 @@
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I31" s="5">
         <f>(H31-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>74</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="I32" s="5">
         <f>(H32-F$51)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
@@ -5680,11 +5680,11 @@
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I33" s="5">
         <f>(H33-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>19</v>
@@ -5715,11 +5715,11 @@
       </c>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>621</v>
       </c>
       <c r="I34" s="5">
         <f>(H34-F$51)</f>
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>35</v>
@@ -5979,8 +5979,8 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="23">
-        <f>F50*4</f>
-        <v>1000</v>
+        <f>F50*1.8</f>
+        <v>450</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="26"/>
@@ -5997,7 +5997,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="24">
         <f>SUM(I2:I37)</f>
-        <v>3120</v>
+        <v>1404</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="27"/>
@@ -6014,7 +6014,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="8">
         <f>F52/F48*100</f>
-        <v>12.479999999999999</v>
+        <v>5.6160000000000005</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="26"/>
@@ -6062,8 +6062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="H2" s="24">
         <f>D2*E$83</f>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I2" s="45">
         <f>(H2-E$83)/2</f>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>13</v>
@@ -6172,11 +6172,11 @@
       </c>
       <c r="H3" s="24">
         <f t="shared" ref="H3:H66" si="0">D3*E$83</f>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I3" s="45">
         <f>(H3-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>35</v>
@@ -6209,11 +6209,11 @@
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I4" s="45">
         <f>(H4-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>74</v>
@@ -6246,11 +6246,11 @@
       </c>
       <c r="H5" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I5" s="45">
         <f t="shared" ref="I5:I62" si="1">(H5-E$83)/2</f>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>13</v>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="H6" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I6" s="45">
         <f>(H6-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>35</v>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="H7" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I7" s="45">
         <f>(H7-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>35</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="I8" s="45">
         <f>(H8-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>43</v>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="H9" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I9" s="45">
         <f>(H9-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>16</v>
@@ -6430,11 +6430,11 @@
       </c>
       <c r="H10" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I10" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
@@ -6467,11 +6467,11 @@
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I11" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>13</v>
@@ -6504,11 +6504,11 @@
       </c>
       <c r="H12" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I12" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>36</v>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="I13" s="45">
         <f>(H13-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>12</v>
@@ -6577,11 +6577,11 @@
       </c>
       <c r="H14" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I14" s="45">
         <f>(H14-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="I15" s="45">
         <f>(H15-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="I16" s="45">
         <f>(H16-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>43</v>
@@ -6686,11 +6686,11 @@
       </c>
       <c r="H17" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I17" s="45">
         <f>(H17-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>125</v>
@@ -6723,11 +6723,11 @@
       </c>
       <c r="H18" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I18" s="45">
         <f t="shared" ref="I18:I19" si="2">(H18-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>26</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="H19" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I19" s="45">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>101</v>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="I20" s="45">
         <f>(H20-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="H21" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I21" s="45">
         <f>(H21-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>19</v>
@@ -6870,11 +6870,11 @@
       </c>
       <c r="H22" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I22" s="45">
         <f t="shared" ref="I22:I26" si="3">(H22-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>32</v>
@@ -6907,11 +6907,11 @@
       </c>
       <c r="H23" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I23" s="45">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>19</v>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="H24" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I24" s="45">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>26</v>
@@ -6981,11 +6981,11 @@
       </c>
       <c r="H25" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I25" s="45">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>74</v>
@@ -7018,11 +7018,11 @@
       </c>
       <c r="H26" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I26" s="45">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>74</v>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="I27" s="45">
         <f>(H27-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>38</v>
@@ -7091,11 +7091,11 @@
       </c>
       <c r="H28" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I28" s="45">
         <f>(H28-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>16</v>
@@ -7128,11 +7128,11 @@
       </c>
       <c r="H29" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I29" s="45">
         <f>(H29-E$83)/2</f>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>13</v>
@@ -7165,11 +7165,11 @@
       </c>
       <c r="H30" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I30" s="45">
         <f>(H30-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>16</v>
@@ -7202,11 +7202,11 @@
       </c>
       <c r="H31" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I31" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J31" s="36" t="s">
         <v>36</v>
@@ -7239,11 +7239,11 @@
       </c>
       <c r="H32" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I32" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
@@ -7276,11 +7276,11 @@
       </c>
       <c r="H33" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I33" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>13</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="I34" s="45">
         <f>(H34-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>43</v>
@@ -7349,11 +7349,11 @@
       </c>
       <c r="H35" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I35" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>13</v>
@@ -7386,11 +7386,11 @@
       </c>
       <c r="H36" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I36" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>13</v>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="H37" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I37" s="45">
         <f>(H37-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>32</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="I38" s="45">
         <f>(H38-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>38</v>
@@ -7496,11 +7496,11 @@
       </c>
       <c r="H39" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I39" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J39" s="36" t="s">
         <v>22</v>
@@ -7533,11 +7533,11 @@
       </c>
       <c r="H40" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I40" s="45">
         <f>(H40-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>32</v>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="I41" s="45">
         <f>(H41-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>38</v>
@@ -7606,11 +7606,11 @@
       </c>
       <c r="H42" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I42" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>13</v>
@@ -7643,11 +7643,11 @@
       </c>
       <c r="H43" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I43" s="45">
         <f>(H43-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>32</v>
@@ -7680,11 +7680,11 @@
       </c>
       <c r="H44" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I44" s="45">
         <f t="shared" ref="I44:I45" si="4">(H44-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>32</v>
@@ -7717,11 +7717,11 @@
       </c>
       <c r="H45" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I45" s="45">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>106</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="I46" s="45">
         <f>(H46-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>38</v>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I47" s="45">
         <f>(H47-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>38</v>
@@ -7826,11 +7826,11 @@
       </c>
       <c r="H48" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I48" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>13</v>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="I49" s="45">
         <f>(H49-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>12</v>
@@ -7899,11 +7899,11 @@
       </c>
       <c r="H50" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I50" s="45">
         <f>(H50-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>106</v>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="I51" s="45">
         <f>(H51-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>43</v>
@@ -7972,11 +7972,11 @@
       </c>
       <c r="H52" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I52" s="45">
         <f>(H52-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>32</v>
@@ -8009,11 +8009,11 @@
       </c>
       <c r="H53" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I53" s="45">
         <f t="shared" ref="I53:I55" si="5">(H53-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>32</v>
@@ -8046,11 +8046,11 @@
       </c>
       <c r="H54" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I54" s="45">
         <f t="shared" si="5"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>19</v>
@@ -8083,11 +8083,11 @@
       </c>
       <c r="H55" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I55" s="45">
         <f t="shared" si="5"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>34</v>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="I56" s="45">
         <f>(H56-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>43</v>
@@ -8156,11 +8156,11 @@
       </c>
       <c r="H57" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I57" s="45">
         <f>(H57-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>34</v>
@@ -8193,11 +8193,11 @@
       </c>
       <c r="H58" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I58" s="45">
         <f t="shared" ref="I58:I60" si="6">(H58-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>26</v>
@@ -8230,11 +8230,11 @@
       </c>
       <c r="H59" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I59" s="45">
         <f t="shared" si="6"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>31</v>
@@ -8267,11 +8267,11 @@
       </c>
       <c r="H60" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I60" s="45">
         <f t="shared" si="6"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -8304,11 +8304,11 @@
       </c>
       <c r="H61" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I61" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>36</v>
@@ -8341,11 +8341,11 @@
       </c>
       <c r="H62" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I62" s="45">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>22</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="I63" s="45">
         <f>(H63-E$83)</f>
-        <v>-1000</v>
+        <v>-450</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>38</v>
@@ -8414,11 +8414,11 @@
       </c>
       <c r="H64" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I64" s="45">
         <f>(H64-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>74</v>
@@ -8451,11 +8451,11 @@
       </c>
       <c r="H65" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I65" s="45">
         <f t="shared" ref="I65:I68" si="7">(H65-E$83)</f>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>16</v>
@@ -8488,11 +8488,11 @@
       </c>
       <c r="H66" s="24">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I66" s="45">
         <f t="shared" si="7"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>74</v>
@@ -8525,11 +8525,11 @@
       </c>
       <c r="H67" s="24">
         <f t="shared" ref="H67:H69" si="8">D67*E$83</f>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I67" s="45">
         <f t="shared" si="7"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>40</v>
@@ -8562,11 +8562,11 @@
       </c>
       <c r="H68" s="24">
         <f t="shared" si="8"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I68" s="45">
         <f t="shared" si="7"/>
-        <v>450</v>
+        <v>202.5</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>74</v>
@@ -8599,11 +8599,11 @@
       </c>
       <c r="H69" s="24">
         <f t="shared" si="8"/>
-        <v>1450</v>
+        <v>652.5</v>
       </c>
       <c r="I69" s="45">
         <f t="shared" ref="I69" si="9">(H69-E$83)/2</f>
-        <v>225</v>
+        <v>101.25</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>36</v>
@@ -8815,8 +8815,8 @@
         <v>55</v>
       </c>
       <c r="E83" s="23">
-        <f>E82*4</f>
-        <v>1000</v>
+        <f>E82*1.8</f>
+        <v>450</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="8"/>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E84" s="24">
         <f>SUM(I2:I69)</f>
-        <v>5025</v>
+        <v>2261.25</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="E85" s="8">
         <f>E84/E80*100</f>
-        <v>20.100000000000001</v>
+        <v>9.0449999999999999</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="8"/>

--- a/LEAGUES/2022/MATRIZ-FULL/matriz-full-league-2022.xlsx
+++ b/LEAGUES/2022/MATRIZ-FULL/matriz-full-league-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="F2" s="5">
         <f>C2*E$57</f>
-        <v>846</v>
+        <v>1880</v>
       </c>
       <c r="G2" s="5">
         <f>F2-E$57</f>
-        <v>396</v>
+        <v>880</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>16</v>
@@ -3018,11 +3018,11 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F41" si="0">C3*E$57</f>
-        <v>675</v>
+        <v>1500</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G41" si="1">F3-E$57</f>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>19</v>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>877.5</v>
+        <v>1950</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>427.5</v>
+        <v>950</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>32</v>
@@ -3082,11 +3082,11 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>688.5</v>
+        <v>1530</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>238.5</v>
+        <v>530</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>35</v>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>693</v>
+        <v>1540</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>540</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -3146,11 +3146,11 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>796.5</v>
+        <v>1770</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>346.5</v>
+        <v>770</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>31</v>
@@ -3208,11 +3208,11 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>850.5</v>
+        <v>1890</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>400.5</v>
+        <v>890</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>31</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>823.5</v>
+        <v>1830</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>373.5</v>
+        <v>830</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>19</v>
@@ -3272,11 +3272,11 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>666</v>
+        <v>1480</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>19</v>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>1520</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>520</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>19</v>
@@ -3366,11 +3366,11 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>202</v>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>670.5</v>
+        <v>1490</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>220.5</v>
+        <v>490</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>13</v>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>12</v>
@@ -3460,11 +3460,11 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>819</v>
+        <v>1820</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>369</v>
+        <v>820</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>1500</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>65</v>
@@ -3522,11 +3522,11 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>783</v>
+        <v>1740</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>740</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>74</v>
@@ -3553,11 +3553,11 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>738</v>
+        <v>1640</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>640</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>215</v>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>787.5</v>
+        <v>1750</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>337.5</v>
+        <v>750</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>217</v>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>765</v>
+        <v>1700</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>32</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>43</v>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>13</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>38</v>
@@ -3736,11 +3736,11 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="0"/>
-        <v>846</v>
+        <v>1880</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>880</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>19</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>38</v>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>666</v>
+        <v>1480</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>74</v>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>1520</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>520</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>74</v>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="0"/>
-        <v>868.5</v>
+        <v>1930</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
-        <v>418.5</v>
+        <v>930</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>26</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>13</v>
@@ -3920,11 +3920,11 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="0"/>
-        <v>886.5</v>
+        <v>1970</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
-        <v>436.5</v>
+        <v>970</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>32</v>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="0"/>
-        <v>814.5</v>
+        <v>1810</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="1"/>
-        <v>364.5</v>
+        <v>810</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>40</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>43</v>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>43</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>13</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" si="1"/>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>38</v>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>1500</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>74</v>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>1500</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>35</v>
@@ -4427,8 +4427,8 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="23">
-        <f>E56*1.8</f>
-        <v>450</v>
+        <f>E56*4</f>
+        <v>1000</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="26"/>
@@ -4444,7 +4444,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="24">
         <f>SUM(G2:G43)</f>
-        <v>3429</v>
+        <v>7620</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="27"/>
@@ -4460,7 +4460,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="8">
         <f>E58/E54*100</f>
-        <v>13.716000000000001</v>
+        <v>30.48</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="26"/>
@@ -4506,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -4578,11 +4578,11 @@
       </c>
       <c r="H2" s="5">
         <f>D2*F$51</f>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I2" s="5">
         <f>(H2-F$51)/2</f>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>13</v>
@@ -4615,11 +4615,11 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H34" si="0">D3*F$51</f>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I30" si="1">(H3-F$51)/2</f>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>36</v>
@@ -4652,11 +4652,11 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>819</v>
+        <v>1820</v>
       </c>
       <c r="I4" s="5">
         <f>(H4-F$51)</f>
-        <v>369</v>
+        <v>820</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>34</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="I5" s="5">
         <f>(H5-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>43</v>
@@ -4725,11 +4725,11 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I6" s="5">
         <f>(H6-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>31</v>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="H7" s="5">
         <f>D7*F$51</f>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>13</v>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>13</v>
@@ -4836,11 +4836,11 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>22</v>
@@ -4873,11 +4873,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>792</v>
+        <v>1760</v>
       </c>
       <c r="I10" s="5">
         <f>(H10-F$51)</f>
-        <v>342</v>
+        <v>760</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>32</v>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I11" s="5">
         <f>(H11-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>26</v>
@@ -4947,11 +4947,11 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>706.5</v>
+        <v>1570</v>
       </c>
       <c r="I12" s="5">
         <f>(H12-F$51)</f>
-        <v>256.5</v>
+        <v>570</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>32</v>
@@ -4984,11 +4984,11 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>36</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="I14" s="5">
         <f>(H14-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>43</v>
@@ -5053,11 +5053,11 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I15" s="5">
         <f>(H15-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>32</v>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>850.5</v>
+        <v>1890</v>
       </c>
       <c r="I16" s="5">
         <f>(H16-F$51)</f>
-        <v>400.5</v>
+        <v>890</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>35</v>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="I17" s="5">
         <f>(H17-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>38</v>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I18" s="5">
         <f>(H18-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>70</v>
@@ -5192,11 +5192,11 @@
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I19" s="5">
         <f>(H19-F$51)/2</f>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>13</v>
@@ -5227,11 +5227,11 @@
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>859.5</v>
+        <v>1910</v>
       </c>
       <c r="I20" s="5">
         <f>(H20-F$51)</f>
-        <v>409.5</v>
+        <v>910</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>106</v>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>13</v>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>832.5</v>
+        <v>1850</v>
       </c>
       <c r="I22" s="5">
         <f>(H22-F$51)</f>
-        <v>382.5</v>
+        <v>850</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>74</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="I23" s="5">
         <f>(H23-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="I24" s="5">
         <f>(H24-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>13</v>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I25" s="5">
         <f>(H25-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>19</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="I26" s="5">
         <f>(H26-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>43</v>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>13</v>
@@ -5506,11 +5506,11 @@
       </c>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>22</v>
@@ -5541,11 +5541,11 @@
       </c>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>13</v>
@@ -5576,11 +5576,11 @@
       </c>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="1"/>
-        <v>85.5</v>
+        <v>190</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
@@ -5611,11 +5611,11 @@
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I31" s="5">
         <f>(H31-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>74</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="I32" s="5">
         <f>(H32-F$51)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
@@ -5680,11 +5680,11 @@
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I33" s="5">
         <f>(H33-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>19</v>
@@ -5715,11 +5715,11 @@
       </c>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
-        <v>621</v>
+        <v>1380</v>
       </c>
       <c r="I34" s="5">
         <f>(H34-F$51)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>35</v>
@@ -5979,8 +5979,8 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="23">
-        <f>F50*1.8</f>
-        <v>450</v>
+        <f>F50*4</f>
+        <v>1000</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="26"/>
@@ -5997,7 +5997,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="24">
         <f>SUM(I2:I37)</f>
-        <v>1404</v>
+        <v>3120</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="27"/>
@@ -6014,7 +6014,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="8">
         <f>F52/F48*100</f>
-        <v>5.6160000000000005</v>
+        <v>12.479999999999999</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="26"/>
@@ -6062,8 +6062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6122,7 +6122,7 @@
         <v>2.11</v>
       </c>
       <c r="D2" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>9</v>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="H2" s="24">
         <f>D2*E$83</f>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I2" s="45">
         <f>(H2-E$83)/2</f>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>13</v>
@@ -6159,7 +6159,7 @@
         <v>2.08</v>
       </c>
       <c r="D3" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>9</v>
@@ -6172,11 +6172,11 @@
       </c>
       <c r="H3" s="24">
         <f t="shared" ref="H3:H66" si="0">D3*E$83</f>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I3" s="45">
         <f>(H3-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>35</v>
@@ -6196,7 +6196,7 @@
         <v>1.99</v>
       </c>
       <c r="D4" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>9</v>
@@ -6209,11 +6209,11 @@
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I4" s="45">
         <f>(H4-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>74</v>
@@ -6233,7 +6233,7 @@
         <v>1.71</v>
       </c>
       <c r="D5" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>9</v>
@@ -6246,11 +6246,11 @@
       </c>
       <c r="H5" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I5" s="45">
         <f t="shared" ref="I5:I62" si="1">(H5-E$83)/2</f>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>13</v>
@@ -6270,7 +6270,7 @@
         <v>1.9</v>
       </c>
       <c r="D6" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>9</v>
@@ -6283,11 +6283,11 @@
       </c>
       <c r="H6" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I6" s="45">
         <f>(H6-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>35</v>
@@ -6307,7 +6307,7 @@
         <v>1.88</v>
       </c>
       <c r="D7" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>9</v>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="H7" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I7" s="45">
         <f>(H7-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>35</v>
@@ -6344,7 +6344,7 @@
         <v>1.91</v>
       </c>
       <c r="D8" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>9</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="I8" s="45">
         <f>(H8-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>43</v>
@@ -6380,7 +6380,7 @@
         <v>1.98</v>
       </c>
       <c r="D9" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>9</v>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="H9" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I9" s="45">
         <f>(H9-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>16</v>
@@ -6417,7 +6417,7 @@
         <v>1.7</v>
       </c>
       <c r="D10" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>9</v>
@@ -6430,11 +6430,11 @@
       </c>
       <c r="H10" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I10" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>22</v>
@@ -6454,7 +6454,7 @@
         <v>1.96</v>
       </c>
       <c r="D11" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>9</v>
@@ -6467,11 +6467,11 @@
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I11" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>13</v>
@@ -6491,7 +6491,7 @@
         <v>1.68</v>
       </c>
       <c r="D12" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>9</v>
@@ -6504,11 +6504,11 @@
       </c>
       <c r="H12" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I12" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>36</v>
@@ -6528,7 +6528,7 @@
         <v>1.88</v>
       </c>
       <c r="D13" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>9</v>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="I13" s="45">
         <f>(H13-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>12</v>
@@ -6564,7 +6564,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="D14" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>9</v>
@@ -6577,11 +6577,11 @@
       </c>
       <c r="H14" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="45">
         <f>(H14-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
@@ -6601,7 +6601,7 @@
         <v>1.86</v>
       </c>
       <c r="D15" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>9</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="I15" s="45">
         <f>(H15-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
@@ -6637,7 +6637,7 @@
         <v>1.97</v>
       </c>
       <c r="D16" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>9</v>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="I16" s="45">
         <f>(H16-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>43</v>
@@ -6673,7 +6673,7 @@
         <v>1.96</v>
       </c>
       <c r="D17" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>9</v>
@@ -6686,11 +6686,11 @@
       </c>
       <c r="H17" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="45">
         <f>(H17-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>125</v>
@@ -6710,7 +6710,7 @@
         <v>1.93</v>
       </c>
       <c r="D18" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>9</v>
@@ -6723,11 +6723,11 @@
       </c>
       <c r="H18" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I18" s="45">
         <f t="shared" ref="I18:I19" si="2">(H18-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>26</v>
@@ -6747,7 +6747,7 @@
         <v>1.76</v>
       </c>
       <c r="D19" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>9</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="H19" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I19" s="45">
         <f t="shared" si="2"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>101</v>
@@ -6784,7 +6784,7 @@
         <v>1.92</v>
       </c>
       <c r="D20" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>9</v>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="I20" s="45">
         <f>(H20-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
@@ -6820,7 +6820,7 @@
         <v>1.84</v>
       </c>
       <c r="D21" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>9</v>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="H21" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I21" s="45">
         <f>(H21-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>19</v>
@@ -6857,7 +6857,7 @@
         <v>1.97</v>
       </c>
       <c r="D22" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>9</v>
@@ -6870,11 +6870,11 @@
       </c>
       <c r="H22" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="45">
         <f t="shared" ref="I22:I26" si="3">(H22-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>32</v>
@@ -6894,7 +6894,7 @@
         <v>1.95</v>
       </c>
       <c r="D23" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>9</v>
@@ -6907,11 +6907,11 @@
       </c>
       <c r="H23" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I23" s="45">
         <f t="shared" si="3"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>19</v>
@@ -6931,7 +6931,7 @@
         <v>1.8</v>
       </c>
       <c r="D24" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>9</v>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="H24" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I24" s="45">
         <f t="shared" si="3"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>26</v>
@@ -6968,7 +6968,7 @@
         <v>1.85</v>
       </c>
       <c r="D25" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>9</v>
@@ -6981,11 +6981,11 @@
       </c>
       <c r="H25" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I25" s="45">
         <f t="shared" si="3"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>74</v>
@@ -7005,7 +7005,7 @@
         <v>1.56</v>
       </c>
       <c r="D26" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>9</v>
@@ -7018,11 +7018,11 @@
       </c>
       <c r="H26" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I26" s="45">
         <f t="shared" si="3"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>74</v>
@@ -7042,7 +7042,7 @@
         <v>1.67</v>
       </c>
       <c r="D27" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>9</v>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="I27" s="45">
         <f>(H27-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>38</v>
@@ -7078,7 +7078,7 @@
         <v>2.08</v>
       </c>
       <c r="D28" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>9</v>
@@ -7091,11 +7091,11 @@
       </c>
       <c r="H28" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I28" s="45">
         <f>(H28-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>16</v>
@@ -7115,7 +7115,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="D29" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>9</v>
@@ -7128,11 +7128,11 @@
       </c>
       <c r="H29" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I29" s="45">
         <f>(H29-E$83)/2</f>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>13</v>
@@ -7152,7 +7152,7 @@
         <v>2.08</v>
       </c>
       <c r="D30" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>9</v>
@@ -7165,11 +7165,11 @@
       </c>
       <c r="H30" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I30" s="45">
         <f>(H30-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>16</v>
@@ -7189,7 +7189,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>9</v>
@@ -7202,11 +7202,11 @@
       </c>
       <c r="H31" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I31" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J31" s="36" t="s">
         <v>36</v>
@@ -7226,7 +7226,7 @@
         <v>1.91</v>
       </c>
       <c r="D32" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>9</v>
@@ -7239,11 +7239,11 @@
       </c>
       <c r="H32" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
@@ -7263,7 +7263,7 @@
         <v>1.71</v>
       </c>
       <c r="D33" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>9</v>
@@ -7276,11 +7276,11 @@
       </c>
       <c r="H33" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I33" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>13</v>
@@ -7300,7 +7300,7 @@
         <v>1.97</v>
       </c>
       <c r="D34" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>9</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="I34" s="45">
         <f>(H34-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>43</v>
@@ -7336,7 +7336,7 @@
         <v>1.68</v>
       </c>
       <c r="D35" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>9</v>
@@ -7349,11 +7349,11 @@
       </c>
       <c r="H35" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I35" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>13</v>
@@ -7373,7 +7373,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>9</v>
@@ -7386,11 +7386,11 @@
       </c>
       <c r="H36" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I36" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>13</v>
@@ -7410,7 +7410,7 @@
         <v>2.04</v>
       </c>
       <c r="D37" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>9</v>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="H37" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I37" s="45">
         <f>(H37-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>32</v>
@@ -7447,7 +7447,7 @@
         <v>2.06</v>
       </c>
       <c r="D38" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>9</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="I38" s="45">
         <f>(H38-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>38</v>
@@ -7483,7 +7483,7 @@
         <v>1.83</v>
       </c>
       <c r="D39" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>9</v>
@@ -7496,11 +7496,11 @@
       </c>
       <c r="H39" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I39" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J39" s="36" t="s">
         <v>22</v>
@@ -7520,7 +7520,7 @@
         <v>1.96</v>
       </c>
       <c r="D40" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>9</v>
@@ -7533,11 +7533,11 @@
       </c>
       <c r="H40" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I40" s="45">
         <f>(H40-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>32</v>
@@ -7557,7 +7557,7 @@
         <v>2.08</v>
       </c>
       <c r="D41" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>9</v>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="I41" s="45">
         <f>(H41-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>38</v>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>9</v>
@@ -7606,11 +7606,11 @@
       </c>
       <c r="H42" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I42" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>13</v>
@@ -7630,7 +7630,7 @@
         <v>1.98</v>
       </c>
       <c r="D43" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>9</v>
@@ -7643,11 +7643,11 @@
       </c>
       <c r="H43" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I43" s="45">
         <f>(H43-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>32</v>
@@ -7667,7 +7667,7 @@
         <v>2.11</v>
       </c>
       <c r="D44" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>9</v>
@@ -7680,11 +7680,11 @@
       </c>
       <c r="H44" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I44" s="45">
         <f t="shared" ref="I44:I45" si="4">(H44-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>32</v>
@@ -7704,7 +7704,7 @@
         <v>1.7</v>
       </c>
       <c r="D45" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>9</v>
@@ -7717,11 +7717,11 @@
       </c>
       <c r="H45" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I45" s="45">
         <f t="shared" si="4"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>106</v>
@@ -7741,7 +7741,7 @@
         <v>1.84</v>
       </c>
       <c r="D46" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>9</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="I46" s="45">
         <f>(H46-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>38</v>
@@ -7777,7 +7777,7 @@
         <v>2.06</v>
       </c>
       <c r="D47" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>9</v>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I47" s="45">
         <f>(H47-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>38</v>
@@ -7813,7 +7813,7 @@
         <v>1.99</v>
       </c>
       <c r="D48" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>9</v>
@@ -7826,11 +7826,11 @@
       </c>
       <c r="H48" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I48" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>13</v>
@@ -7850,7 +7850,7 @@
         <v>1.81</v>
       </c>
       <c r="D49" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>9</v>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="I49" s="45">
         <f>(H49-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>12</v>
@@ -7886,7 +7886,7 @@
         <v>1.99</v>
       </c>
       <c r="D50" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>9</v>
@@ -7899,11 +7899,11 @@
       </c>
       <c r="H50" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I50" s="45">
         <f>(H50-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>106</v>
@@ -7923,7 +7923,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="D51" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>9</v>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="I51" s="45">
         <f>(H51-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>43</v>
@@ -7959,7 +7959,7 @@
         <v>1.95</v>
       </c>
       <c r="D52" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>9</v>
@@ -7972,11 +7972,11 @@
       </c>
       <c r="H52" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I52" s="45">
         <f>(H52-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>32</v>
@@ -7996,7 +7996,7 @@
         <v>1.92</v>
       </c>
       <c r="D53" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>9</v>
@@ -8009,11 +8009,11 @@
       </c>
       <c r="H53" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I53" s="45">
         <f t="shared" ref="I53:I55" si="5">(H53-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>32</v>
@@ -8033,7 +8033,7 @@
         <v>2.02</v>
       </c>
       <c r="D54" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>9</v>
@@ -8046,11 +8046,11 @@
       </c>
       <c r="H54" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I54" s="45">
         <f t="shared" si="5"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>19</v>
@@ -8070,7 +8070,7 @@
         <v>1.81</v>
       </c>
       <c r="D55" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>9</v>
@@ -8083,11 +8083,11 @@
       </c>
       <c r="H55" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I55" s="45">
         <f t="shared" si="5"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>34</v>
@@ -8107,7 +8107,7 @@
         <v>1.87</v>
       </c>
       <c r="D56" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>9</v>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="I56" s="45">
         <f>(H56-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>43</v>
@@ -8143,7 +8143,7 @@
         <v>1.76</v>
       </c>
       <c r="D57" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>9</v>
@@ -8156,11 +8156,11 @@
       </c>
       <c r="H57" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="45">
         <f>(H57-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>34</v>
@@ -8180,7 +8180,7 @@
         <v>1.96</v>
       </c>
       <c r="D58" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>9</v>
@@ -8193,11 +8193,11 @@
       </c>
       <c r="H58" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I58" s="45">
         <f t="shared" ref="I58:I60" si="6">(H58-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>26</v>
@@ -8217,7 +8217,7 @@
         <v>1.72</v>
       </c>
       <c r="D59" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>9</v>
@@ -8230,11 +8230,11 @@
       </c>
       <c r="H59" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I59" s="45">
         <f t="shared" si="6"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>31</v>
@@ -8254,7 +8254,7 @@
         <v>1.7</v>
       </c>
       <c r="D60" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>9</v>
@@ -8267,11 +8267,11 @@
       </c>
       <c r="H60" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I60" s="45">
         <f t="shared" si="6"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -8291,7 +8291,7 @@
         <v>1.89</v>
       </c>
       <c r="D61" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>9</v>
@@ -8304,11 +8304,11 @@
       </c>
       <c r="H61" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I61" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>36</v>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>9</v>
@@ -8341,11 +8341,11 @@
       </c>
       <c r="H62" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I62" s="45">
         <f t="shared" si="1"/>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>22</v>
@@ -8365,7 +8365,7 @@
         <v>1.86</v>
       </c>
       <c r="D63" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>9</v>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="I63" s="45">
         <f>(H63-E$83)</f>
-        <v>-450</v>
+        <v>-1000</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>38</v>
@@ -8401,7 +8401,7 @@
         <v>1.85</v>
       </c>
       <c r="D64" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>9</v>
@@ -8414,11 +8414,11 @@
       </c>
       <c r="H64" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I64" s="45">
         <f>(H64-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>74</v>
@@ -8438,7 +8438,7 @@
         <v>1.87</v>
       </c>
       <c r="D65" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E65" s="28" t="s">
         <v>9</v>
@@ -8451,11 +8451,11 @@
       </c>
       <c r="H65" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I65" s="45">
         <f t="shared" ref="I65:I68" si="7">(H65-E$83)</f>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>16</v>
@@ -8475,7 +8475,7 @@
         <v>1.93</v>
       </c>
       <c r="D66" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>9</v>
@@ -8488,11 +8488,11 @@
       </c>
       <c r="H66" s="24">
         <f t="shared" si="0"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I66" s="45">
         <f t="shared" si="7"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>74</v>
@@ -8512,7 +8512,7 @@
         <v>1.73</v>
       </c>
       <c r="D67" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>9</v>
@@ -8525,11 +8525,11 @@
       </c>
       <c r="H67" s="24">
         <f t="shared" ref="H67:H69" si="8">D67*E$83</f>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I67" s="45">
         <f t="shared" si="7"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>40</v>
@@ -8549,7 +8549,7 @@
         <v>1.59</v>
       </c>
       <c r="D68" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E68" s="28" t="s">
         <v>9</v>
@@ -8562,11 +8562,11 @@
       </c>
       <c r="H68" s="24">
         <f t="shared" si="8"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I68" s="45">
         <f t="shared" si="7"/>
-        <v>202.5</v>
+        <v>400</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>74</v>
@@ -8586,7 +8586,7 @@
         <v>1.75</v>
       </c>
       <c r="D69" s="11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E69" s="28" t="s">
         <v>9</v>
@@ -8599,11 +8599,11 @@
       </c>
       <c r="H69" s="24">
         <f t="shared" si="8"/>
-        <v>652.5</v>
+        <v>1400</v>
       </c>
       <c r="I69" s="45">
         <f t="shared" ref="I69" si="9">(H69-E$83)/2</f>
-        <v>101.25</v>
+        <v>200</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>36</v>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="E76" s="3">
         <f>1/E77*100</f>
-        <v>68.965517241379231</v>
+        <v>71.42857142857136</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="8"/>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="E77" s="3">
         <f>SUM(D2:D69)/E72</f>
-        <v>1.4500000000000015</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="8"/>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E78" s="13">
         <f>E75-E76</f>
-        <v>8.9756592292090005</v>
+        <v>6.5126050420168724</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="8"/>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="E79" s="13">
         <f>E78/1</f>
-        <v>8.9756592292090005</v>
+        <v>6.5126050420168724</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="8"/>
@@ -8815,8 +8815,8 @@
         <v>55</v>
       </c>
       <c r="E83" s="23">
-        <f>E82*1.8</f>
-        <v>450</v>
+        <f>E82*4</f>
+        <v>1000</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="8"/>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E84" s="24">
         <f>SUM(I2:I69)</f>
-        <v>2261.25</v>
+        <v>2800</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="E85" s="8">
         <f>E84/E80*100</f>
-        <v>9.0449999999999999</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="8"/>
